--- a/doc/csr_spec.xlsx
+++ b/doc/csr_spec.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\conv_npu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBE87D6-0F77-43F3-841D-FBAC225CA9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB762BF-BA6A-43CA-8FB4-92764635F6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>csr name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,15 +41,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>csr_feature_baseaddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征图首地址（BRAM地址空间编址，非SoC内存地址）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csr_feature_size</t>
+    <t>特征图宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征图通道数（在物理内存中，特征图数据依次按通道数，宽，高排列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积核数量（输出通道数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_baseaddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_chin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel_num(chout)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积步长（1，2，……）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_bias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否含有偏置（0 false；1 true）偏置的值存放在卷积核权重的最后一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征图高度（若高度为1，则退化为conv1d）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积核尺寸（仅支持conv1d或者方形卷积核的conv2d）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_height（conv1d）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘填充（0，1，……）（暂时不支持硬件运行时padding，此选项无效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npu_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npu_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npu控制寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npu状态寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uop_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前conv layer需要的微操作次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uop_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前的微操作id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_baseaddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npu_control bit定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control[31:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动当前layer运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止运算并冲刷流水线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npu_state bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE空闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXI访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征图首地址（特征图BRAM地址空间编址，非SoC内存地址）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前layer写回的首地址(特征图BRAM地址空间编址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R(写无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE busy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,13 +266,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,22 +557,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="67.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -413,59 +582,204 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -473,4 +787,148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC27BDE-E575-4F96-9956-87BE80EAB1E8}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27702A9-89D9-4E1A-8BB7-6EDC11BD294D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="12.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/csr_spec.xlsx
+++ b/doc/csr_spec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\conv_npu\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\conv_npu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB762BF-BA6A-43CA-8FB4-92764635F6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D348C6-AEAC-4E41-8F73-A4BCE494B6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2844" yWindow="1944" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>csr name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,18 +145,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npu_control bit定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>control[31:0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reserved</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npu_state bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IDLE空闲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,14 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特征图首地址（特征图BRAM地址空间编址，非SoC内存地址）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前layer写回的首地址(特征图BRAM地址空间编址)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R(写无效)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +194,22 @@
   </si>
   <si>
     <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征图首地址(soc内存映射地址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前layer写回的首地址（soc内存映射地址）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npu_control bits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npu_state bits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -275,6 +271,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,7 +559,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -583,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,7 +596,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,7 +680,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +722,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +736,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,7 +750,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,7 +764,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,7 +778,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -791,68 +790,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC27BDE-E575-4F96-9956-87BE80EAB1E8}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B1" s="3">
         <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -865,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27702A9-89D9-4E1A-8BB7-6EDC11BD294D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -882,14 +880,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
+      <c r="A1" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="3">
         <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3">
         <v>3</v>
@@ -905,26 +903,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/csr_spec.xlsx
+++ b/doc/csr_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\conv_npu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D348C6-AEAC-4E41-8F73-A4BCE494B6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC49F02B-C162-42DB-8348-F3F2835D34B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="1944" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>csr name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,22 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uop_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前conv layer需要的微操作次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uop_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前的微操作id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>output_baseaddr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +194,30 @@
   </si>
   <si>
     <t>npu_state bits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_relu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要卷积后relu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stride_row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stride_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前conv 行需要的步进次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前conv 列需要的步进次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +249,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -275,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -582,27 +601,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -610,13 +623,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -624,13 +634,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -638,13 +645,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -652,13 +656,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -666,13 +667,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -680,27 +678,21 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -708,77 +700,73 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
       <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -792,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC27BDE-E575-4F96-9956-87BE80EAB1E8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -809,13 +797,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3">
         <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3">
         <v>3</v>
@@ -832,25 +820,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -881,13 +869,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3">
         <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3">
         <v>3</v>
@@ -904,25 +892,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/csr_spec.xlsx
+++ b/doc/csr_spec.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\conv_npu\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\conv_npu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC49F02B-C162-42DB-8348-F3F2835D34B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF35B66E-62DB-4AD0-ABA7-C1FC4FD5B2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>csr name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特征图通道数（在物理内存中，特征图数据依次按通道数，宽，高排列）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卷积核数量（输出通道数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kernel_num(chout)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kernel_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卷积步长（1，2，……）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>has_bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,70 +84,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卷积核尺寸（仅支持conv1d或者方形卷积核的conv2d）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature_height（conv1d）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边缘填充（0，1，……）（暂时不支持硬件运行时padding，此选项无效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npu_control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npu_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npu控制寄存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npu状态寄存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>output_baseaddr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reserved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动当前layer运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止运算并冲刷流水线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDLE空闲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AXI访问权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,18 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R(写无效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE busy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特征图首地址(soc内存映射地址)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,35 +104,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npu_control bits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npu_state bits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>has_relu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否需要卷积后relu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stride_row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stride_col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前conv 行需要的步进次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前conv 列需要的步进次数</t>
+    <t>特征图通道数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel_baseaddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出特征图宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出特征图高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘填充（暂时不支持）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积步长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要卷积后relu（0 false；1 true）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以当前csr参数启动一个conv layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在执行计算标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积核首地址（SOC内存映射地址）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_chout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积核尺寸（仅支持conv1d \ 正方形conv2d）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: conv1d;  1:conv2d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -286,14 +261,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -590,7 +568,7 @@
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -601,175 +579,216 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -777,143 +796,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC27BDE-E575-4F96-9956-87BE80EAB1E8}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994F0E6D-691B-4975-8B87-5389F15FE648}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="3">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="3">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27702A9-89D9-4E1A-8BB7-6EDC11BD294D}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="12.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="3">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/csr_spec.xlsx
+++ b/doc/csr_spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\conv_npu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF35B66E-62DB-4AD0-ABA7-C1FC4FD5B2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A0516E-40F5-426C-A42F-5AA068121F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,11 +188,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>convnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0: conv1d;  1:conv2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv_mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -650,10 +650,10 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>

--- a/doc/csr_spec.xlsx
+++ b/doc/csr_spec.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\conv_npu\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\conv_npu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A0516E-40F5-426C-A42F-5AA068121F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F9D0D8-FA8A-4E61-B775-5A37298AAD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -793,17 +793,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994F0E6D-691B-4975-8B87-5389F15FE648}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>